--- a/backend/test/Untitled spreadsheet3.xlsx
+++ b/backend/test/Untitled spreadsheet3.xlsx
@@ -168,6 +168,7 @@
       <color rgb="FF0000FF"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -315,12 +316,12 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+      <selection pane="topLeft" activeCell="R8" activeCellId="0" sqref="R8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -343,7 +344,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -366,7 +367,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -389,7 +390,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
@@ -412,7 +413,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>26</v>
       </c>
@@ -438,13 +439,9 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" display="john@sdfs.com"/>
-    <hyperlink ref="G2" display="john.doe@example.com"/>
     <hyperlink ref="B3" r:id="rId2" display="sfd@sdkf.com"/>
-    <hyperlink ref="G3" display="john.doe@example.com"/>
     <hyperlink ref="B4" r:id="rId3" display="dshb@sdf"/>
-    <hyperlink ref="G4" display="john.doe@example.com"/>
     <hyperlink ref="B5" r:id="rId4" display="sdj@sdfj"/>
-    <hyperlink ref="G5" display="john.doe@example.com"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>

--- a/backend/test/Untitled spreadsheet3.xlsx
+++ b/backend/test/Untitled spreadsheet3.xlsx
@@ -125,7 +125,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -161,13 +161,6 @@
       <color rgb="FF0000FF"/>
       <name val="Inter"/>
       <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF0000FF"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -232,8 +225,8 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -316,10 +309,10 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R8" activeCellId="0" sqref="R8"/>
+      <selection pane="topLeft" activeCell="J22" activeCellId="0" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -344,7 +337,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -367,7 +360,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -390,7 +383,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
@@ -413,7 +406,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>26</v>
       </c>
